--- a/Abnormality of the thoracic cavity_v1.0.xlsx
+++ b/Abnormality of the thoracic cavity_v1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/doieisuke/Desktop/BLAH8_HPO_まとめPhenoAb_hpo 2/Done/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBCA304A-5E39-A748-884E-E6FFD4631FBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B25FAD7-9DD5-264E-B460-484A1464EF72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35400" yWindow="4620" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>orig_entry</t>
   </si>
@@ -38,6 +38,18 @@
   </si>
   <si>
     <t>Mediastinal lymphadenopathy</t>
+  </si>
+  <si>
+    <t>縦隔の拡大</t>
+  </si>
+  <si>
+    <t>狭い縦隔</t>
+  </si>
+  <si>
+    <t>気胸</t>
+  </si>
+  <si>
+    <t>縦隔リンパ節腫脹</t>
   </si>
   <si>
     <t>Disease name</t>
@@ -1008,10 +1020,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -1020,7 +1032,7 @@
     <col min="2" max="2" width="29.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1028,19 +1040,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>34501</v>
       </c>
@@ -1055,8 +1067,11 @@
         <v>1</v>
       </c>
       <c r="F2" s="1"/>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>34502</v>
       </c>
@@ -1071,8 +1086,11 @@
         <v>1</v>
       </c>
       <c r="F3" s="1"/>
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>25421</v>
       </c>
@@ -1089,8 +1107,11 @@
         <v>1</v>
       </c>
       <c r="F4" s="1"/>
+      <c r="G4" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>100721</v>
       </c>
@@ -1105,6 +1126,9 @@
         <v>1</v>
       </c>
       <c r="F5" s="1"/>
+      <c r="G5" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18"/>
